--- a/TerVer/qMC.xlsx
+++ b/TerVer/qMC.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="xi">Лист2!$D$3:$R$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>x</t>
   </si>
@@ -95,6 +98,15 @@
   </si>
   <si>
     <t>Ср кв см (s3) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асс см = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асс несм = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экс не см= </t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,15 +2335,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:R3"/>
+  <dimension ref="A3:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -2379,6 +2394,97 @@
       </c>
       <c r="R3">
         <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <f xml:space="preserve"> AVERAGE(xi)</f>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f xml:space="preserve"> _xlfn.VAR.P(xi)</f>
+        <v>173.39333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> _xlfn.VAR.S(xi)</f>
+        <v>185.77857142857141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> _xlfn.STDEV.P(xi)</f>
+        <v>13.167890238505686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> _xlfn.STDEV.S(xi)</f>
+        <v>13.630061314189728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <f xml:space="preserve"> _xlfn.SKEW.P(xi)</f>
+        <v>0.63997477071875886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f xml:space="preserve"> KURT(xi)</f>
+        <v>-0.41453219783863693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <f xml:space="preserve"> B8 / B5</f>
+        <v>0.78849642146740639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f xml:space="preserve"> SKEW(xi)</f>
+        <v>0.71339350081090303</v>
       </c>
     </row>
   </sheetData>
